--- a/tackstack (Autosaved).xlsx
+++ b/tackstack (Autosaved).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepa\learning\DOC\DOC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C3D49D-8EC0-4208-93D8-9F6F78B079B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Software</t>
   </si>
@@ -36,9 +42,6 @@
     <t>remarks</t>
   </si>
   <si>
-    <t>1.5.8</t>
-  </si>
-  <si>
     <t>parent</t>
   </si>
   <si>
@@ -70,13 +73,28 @@
   </si>
   <si>
     <t>3.9.12</t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>3.8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os </t>
+  </si>
+  <si>
+    <t>windows 10 64</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +144,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -172,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +230,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +282,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,19 +475,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -444,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -452,55 +515,71 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -509,24 +588,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
